--- a/APM/DATA/TABLES/CB_IEEE_39.xlsx
+++ b/APM/DATA/TABLES/CB_IEEE_39.xlsx
@@ -98,17 +98,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="111">
   <si>
-    <t xml:space="preserve">Welcome to SAMS</t>
+    <t xml:space="preserve">Welcome to PywerAPM</t>
   </si>
   <si>
     <t xml:space="preserve">Module 
 Circuit Breaker</t>
   </si>
   <si>
-    <t xml:space="preserve">Av, Carrera 30 No.45-03 Edifico 614 Bogotá D.C.
-(571) 316 5000 Ext. 11000</t>
+    <t xml:space="preserve">Calle 46 26-30 of. 605, Bogotá D.C.
+(+57) 3107669918</t>
   </si>
   <si>
     <t xml:space="preserve">Company</t>
@@ -159,7 +159,7 @@
     <t xml:space="preserve">CB_03</t>
   </si>
   <si>
-    <t xml:space="preserve">BOG</t>
+    <t xml:space="preserve">BOG_3</t>
   </si>
   <si>
     <t xml:space="preserve">ABB</t>
@@ -183,6 +183,9 @@
     <t xml:space="preserve">CB_04</t>
   </si>
   <si>
+    <t xml:space="preserve">BOG_4</t>
+  </si>
+  <si>
     <t xml:space="preserve">AREVA</t>
   </si>
   <si>
@@ -195,6 +198,9 @@
     <t xml:space="preserve">CB_07</t>
   </si>
   <si>
+    <t xml:space="preserve">BOG_7</t>
+  </si>
+  <si>
     <t xml:space="preserve">GL-314 F3_1</t>
   </si>
   <si>
@@ -202,6 +208,9 @@
   </si>
   <si>
     <t xml:space="preserve">CB_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_8</t>
   </si>
   <si>
     <t xml:space="preserve">HGA 300/4002-B</t>
@@ -213,16 +222,28 @@
     <t xml:space="preserve">CB_12</t>
   </si>
   <si>
+    <t xml:space="preserve">BOG_12</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALSTOM</t>
   </si>
   <si>
     <t xml:space="preserve">CB_15</t>
   </si>
   <si>
+    <t xml:space="preserve">BOG_15</t>
+  </si>
+  <si>
     <t xml:space="preserve">CB_16</t>
   </si>
   <si>
+    <t xml:space="preserve">BOG_16</t>
+  </si>
+  <si>
     <t xml:space="preserve">CB_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_18</t>
   </si>
   <si>
     <t xml:space="preserve">ASEA</t>
@@ -234,10 +255,16 @@
     <t xml:space="preserve">CB_20</t>
   </si>
   <si>
+    <t xml:space="preserve">BOG_20</t>
+  </si>
+  <si>
     <t xml:space="preserve">HGA 300/4002X</t>
   </si>
   <si>
     <t xml:space="preserve">CB_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_21</t>
   </si>
   <si>
     <t xml:space="preserve">CROMPTON GREAVE</t>
@@ -249,13 +276,25 @@
     <t xml:space="preserve">CB_23</t>
   </si>
   <si>
+    <t xml:space="preserve">BOG_23</t>
+  </si>
+  <si>
     <t xml:space="preserve">CB_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_24</t>
   </si>
   <si>
     <t xml:space="preserve">CB_25</t>
   </si>
   <si>
+    <t xml:space="preserve">BOG_25</t>
+  </si>
+  <si>
     <t xml:space="preserve">CB_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_26</t>
   </si>
   <si>
     <t xml:space="preserve">200-SFM-40S</t>
@@ -267,6 +306,9 @@
     <t xml:space="preserve">CB_27</t>
   </si>
   <si>
+    <t xml:space="preserve">BOG_27</t>
+  </si>
+  <si>
     <t xml:space="preserve">MITSUBISHI</t>
   </si>
   <si>
@@ -276,6 +318,9 @@
     <t xml:space="preserve">CB_28</t>
   </si>
   <si>
+    <t xml:space="preserve">BOG_28</t>
+  </si>
+  <si>
     <t xml:space="preserve">100-SFM-32B -2</t>
   </si>
   <si>
@@ -283,6 +328,9 @@
   </si>
   <si>
     <t xml:space="preserve">CB_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_29</t>
   </si>
   <si>
     <t xml:space="preserve">OERLIKON</t>
@@ -300,6 +348,9 @@
     <t xml:space="preserve">CB_31</t>
   </si>
   <si>
+    <t xml:space="preserve">BOG_31</t>
+  </si>
+  <si>
     <t xml:space="preserve">SIEMENS</t>
   </si>
   <si>
@@ -313,6 +364,9 @@
   </si>
   <si>
     <t xml:space="preserve">CB_39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_39</t>
   </si>
   <si>
     <t xml:space="preserve">SPRECHER+SCHUH</t>
@@ -337,6 +391,9 @@
   </si>
   <si>
     <t xml:space="preserve">R_Dynamic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG</t>
   </si>
   <si>
     <t xml:space="preserve">SF6_Leaks</t>
@@ -412,7 +469,7 @@
     </font>
     <font>
       <sz val="20"/>
-      <color rgb="FFED7D31"/>
+      <color rgb="FF0068B5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -461,8 +518,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
+        <fgColor rgb="FF0068B5"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
@@ -913,7 +970,7 @@
       <rgbColor rgb="FFDDEBF7"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF0068B5"/>
       <rgbColor rgb="FFA9D08E"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -934,9 +991,9 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFED7D31"/>
+      <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -957,19 +1014,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>447840</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>625320</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>333360</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>204480</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Imagen 17" descr=""/>
+        <xdr:cNvPr id="0" name="Picture 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -978,8 +1035,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="447840" y="1143000"/>
-          <a:ext cx="5592600" cy="2152080"/>
+          <a:off x="625320" y="812520"/>
+          <a:ext cx="4471200" cy="2195280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1005,8 +1062,8 @@
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1202,11 +1259,11 @@
     <mergeCell ref="A20:H22"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1220,7 +1277,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1334,7 +1391,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F3" s="23" t="n">
         <v>2006</v>
@@ -1343,10 +1400,10 @@
         <v>500</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" s="25" t="s">
         <v>22</v>
@@ -1358,7 +1415,7 @@
         <v>24</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1369,13 +1426,13 @@
         <v>17</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="22" t="n">
         <v>15</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F4" s="23" t="n">
         <v>2010</v>
@@ -1384,10 +1441,10 @@
         <v>230</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J4" s="25" t="s">
         <v>22</v>
@@ -1399,7 +1456,7 @@
         <v>24</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1410,13 +1467,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" s="22" t="n">
         <v>16</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F5" s="23" t="n">
         <v>1997</v>
@@ -1428,7 +1485,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J5" s="25" t="s">
         <v>22</v>
@@ -1440,7 +1497,7 @@
         <v>24</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1451,13 +1508,13 @@
         <v>17</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D6" s="22" t="n">
         <v>17</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F6" s="23" t="n">
         <v>2015</v>
@@ -1466,10 +1523,10 @@
         <v>500</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J6" s="25" t="s">
         <v>22</v>
@@ -1481,7 +1538,7 @@
         <v>24</v>
       </c>
       <c r="M6" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1492,13 +1549,13 @@
         <v>17</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D7" s="22" t="n">
         <v>18</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F7" s="23" t="n">
         <v>2006</v>
@@ -1507,10 +1564,10 @@
         <v>500</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J7" s="25" t="s">
         <v>22</v>
@@ -1522,7 +1579,7 @@
         <v>24</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1533,13 +1590,13 @@
         <v>17</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D8" s="22" t="n">
         <v>19</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F8" s="23" t="n">
         <v>2010</v>
@@ -1548,10 +1605,10 @@
         <v>230</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J8" s="25" t="s">
         <v>22</v>
@@ -1563,7 +1620,7 @@
         <v>24</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1574,13 +1631,13 @@
         <v>17</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D9" s="22" t="n">
         <v>20</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F9" s="23" t="n">
         <v>1997</v>
@@ -1589,10 +1646,10 @@
         <v>230</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J9" s="25" t="s">
         <v>22</v>
@@ -1615,13 +1672,13 @@
         <v>17</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D10" s="22" t="n">
         <v>21</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F10" s="23" t="n">
         <v>1997</v>
@@ -1630,10 +1687,10 @@
         <v>230</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J10" s="25" t="s">
         <v>22</v>
@@ -1645,7 +1702,7 @@
         <v>24</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1656,13 +1713,13 @@
         <v>17</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D11" s="22" t="n">
         <v>22</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F11" s="23" t="n">
         <v>2007</v>
@@ -1671,10 +1728,10 @@
         <v>230</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="J11" s="25" t="s">
         <v>22</v>
@@ -1697,13 +1754,13 @@
         <v>17</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D12" s="22" t="n">
         <v>23</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="F12" s="23" t="n">
         <v>1997</v>
@@ -1712,10 +1769,10 @@
         <v>230</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J12" s="25" t="s">
         <v>22</v>
@@ -1738,13 +1795,13 @@
         <v>17</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D13" s="22" t="n">
         <v>24</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="F13" s="23" t="n">
         <v>1997</v>
@@ -1753,10 +1810,10 @@
         <v>230</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J13" s="25" t="s">
         <v>22</v>
@@ -1768,7 +1825,7 @@
         <v>24</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1779,13 +1836,13 @@
         <v>17</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D14" s="22" t="n">
         <v>25</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="F14" s="23" t="n">
         <v>2007</v>
@@ -1794,10 +1851,10 @@
         <v>230</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="J14" s="25" t="s">
         <v>22</v>
@@ -1820,13 +1877,13 @@
         <v>17</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D15" s="22" t="n">
         <v>26</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="F15" s="23" t="n">
         <v>2006</v>
@@ -1835,10 +1892,10 @@
         <v>230</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="J15" s="25" t="s">
         <v>22</v>
@@ -1850,7 +1907,7 @@
         <v>24</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1861,13 +1918,13 @@
         <v>17</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D16" s="22" t="n">
         <v>27</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="F16" s="23" t="n">
         <v>1997</v>
@@ -1876,10 +1933,10 @@
         <v>230</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="J16" s="25" t="s">
         <v>22</v>
@@ -1891,7 +1948,7 @@
         <v>24</v>
       </c>
       <c r="M16" s="23" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1902,13 +1959,13 @@
         <v>17</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D17" s="22" t="n">
         <v>28</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="F17" s="23" t="n">
         <v>1997</v>
@@ -1917,10 +1974,10 @@
         <v>115</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="J17" s="25" t="s">
         <v>22</v>
@@ -1932,7 +1989,7 @@
         <v>24</v>
       </c>
       <c r="M17" s="23" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1943,13 +2000,13 @@
         <v>17</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D18" s="22" t="n">
         <v>29</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="F18" s="23" t="n">
         <v>1997</v>
@@ -1958,13 +2015,13 @@
         <v>115</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="K18" s="25" t="s">
         <v>23</v>
@@ -1973,7 +2030,7 @@
         <v>24</v>
       </c>
       <c r="M18" s="23" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1984,13 +2041,13 @@
         <v>17</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D19" s="22" t="n">
         <v>30</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="F19" s="23" t="n">
         <v>2016</v>
@@ -1999,13 +2056,13 @@
         <v>115</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="K19" s="25" t="s">
         <v>23</v>
@@ -2014,7 +2071,7 @@
         <v>24</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2025,13 +2082,13 @@
         <v>17</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D20" s="22" t="n">
         <v>31</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="F20" s="23" t="n">
         <v>1997</v>
@@ -2040,13 +2097,13 @@
         <v>115</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="K20" s="25" t="s">
         <v>23</v>
@@ -2055,7 +2112,7 @@
         <v>24</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2113,7 +2170,7 @@
       <selection pane="topLeft" activeCell="F118" activeCellId="0" sqref="F118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15"/>
@@ -2127,10 +2184,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="33" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C1" s="34" t="s">
         <v>6</v>
@@ -2139,13 +2196,13 @@
         <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2159,7 +2216,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E2" s="39" t="n">
         <v>42116</v>
@@ -2182,7 +2239,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E3" s="39" t="n">
         <v>42172</v>
@@ -2205,7 +2262,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E4" s="39" t="n">
         <v>42350</v>
@@ -2228,7 +2285,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E5" s="45" t="n">
         <v>42929</v>
@@ -2251,7 +2308,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E6" s="39" t="n">
         <v>43272</v>
@@ -2274,7 +2331,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E7" s="39" t="n">
         <v>43542</v>
@@ -2297,7 +2354,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E8" s="39" t="n">
         <v>40956</v>
@@ -2320,7 +2377,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E9" s="39" t="n">
         <v>41523</v>
@@ -2343,7 +2400,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E10" s="39" t="n">
         <v>41785</v>
@@ -2366,7 +2423,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E11" s="39" t="n">
         <v>42173</v>
@@ -2389,7 +2446,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E12" s="39" t="n">
         <v>42933</v>
@@ -2412,7 +2469,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E13" s="39" t="n">
         <v>43476</v>
@@ -2429,13 +2486,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E14" s="39" t="n">
         <v>40781</v>
@@ -2452,13 +2509,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E15" s="39" t="n">
         <v>41542</v>
@@ -2475,13 +2532,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E16" s="39" t="n">
         <v>41838</v>
@@ -2498,13 +2555,13 @@
         <v>17</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E17" s="39" t="n">
         <v>42116</v>
@@ -2521,13 +2578,13 @@
         <v>18</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E18" s="39" t="n">
         <v>42913</v>
@@ -2544,13 +2601,13 @@
         <v>19</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E19" s="39" t="n">
         <v>43476</v>
@@ -2567,13 +2624,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E20" s="39" t="n">
         <v>43516</v>
@@ -2590,13 +2647,13 @@
         <v>21</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C21" s="23" t="n">
         <v>16</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E21" s="39" t="n">
         <v>42116</v>
@@ -2613,13 +2670,13 @@
         <v>22</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C22" s="23" t="n">
         <v>16</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E22" s="39" t="n">
         <v>42172</v>
@@ -2636,13 +2693,13 @@
         <v>24</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C23" s="23" t="n">
         <v>16</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E23" s="39" t="n">
         <v>42350</v>
@@ -2659,13 +2716,13 @@
         <v>25</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C24" s="23" t="n">
         <v>16</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E24" s="45" t="n">
         <v>42929</v>
@@ -2682,13 +2739,13 @@
         <v>26</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C25" s="23" t="n">
         <v>16</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E25" s="39" t="n">
         <v>43272</v>
@@ -2705,13 +2762,13 @@
         <v>27</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C26" s="23" t="n">
         <v>16</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E26" s="39" t="n">
         <v>43542</v>
@@ -2728,13 +2785,13 @@
         <v>28</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C27" s="23" t="n">
         <v>17</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E27" s="39" t="n">
         <v>40956</v>
@@ -2751,13 +2808,13 @@
         <v>29</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C28" s="23" t="n">
         <v>17</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E28" s="39" t="n">
         <v>41523</v>
@@ -2774,13 +2831,13 @@
         <v>30</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C29" s="23" t="n">
         <v>17</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E29" s="39" t="n">
         <v>41785</v>
@@ -2797,13 +2854,13 @@
         <v>31</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C30" s="23" t="n">
         <v>17</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E30" s="39" t="n">
         <v>42173</v>
@@ -2820,13 +2877,13 @@
         <v>32</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C31" s="23" t="n">
         <v>17</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E31" s="39" t="n">
         <v>42933</v>
@@ -2843,13 +2900,13 @@
         <v>33</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C32" s="23" t="n">
         <v>17</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E32" s="39" t="n">
         <v>43476</v>
@@ -2866,13 +2923,13 @@
         <v>34</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C33" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E33" s="39" t="n">
         <v>40781</v>
@@ -2889,13 +2946,13 @@
         <v>35</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C34" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E34" s="39" t="n">
         <v>41542</v>
@@ -2912,13 +2969,13 @@
         <v>36</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C35" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E35" s="39" t="n">
         <v>41838</v>
@@ -2935,13 +2992,13 @@
         <v>37</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C36" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E36" s="39" t="n">
         <v>42116</v>
@@ -2958,13 +3015,13 @@
         <v>38</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C37" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E37" s="39" t="n">
         <v>42913</v>
@@ -2981,13 +3038,13 @@
         <v>39</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C38" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E38" s="39" t="n">
         <v>43476</v>
@@ -3004,13 +3061,13 @@
         <v>40</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C39" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E39" s="39" t="n">
         <v>43516</v>
@@ -3027,13 +3084,13 @@
         <v>41</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C40" s="23" t="n">
         <v>19</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E40" s="39" t="n">
         <v>42116</v>
@@ -3050,13 +3107,13 @@
         <v>42</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C41" s="23" t="n">
         <v>19</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E41" s="39" t="n">
         <v>42172</v>
@@ -3073,13 +3130,13 @@
         <v>44</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C42" s="23" t="n">
         <v>19</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E42" s="39" t="n">
         <v>42350</v>
@@ -3096,13 +3153,13 @@
         <v>45</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C43" s="23" t="n">
         <v>19</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E43" s="45" t="n">
         <v>42929</v>
@@ -3119,13 +3176,13 @@
         <v>46</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C44" s="23" t="n">
         <v>19</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E44" s="39" t="n">
         <v>43272</v>
@@ -3142,13 +3199,13 @@
         <v>47</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C45" s="23" t="n">
         <v>19</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E45" s="39" t="n">
         <v>43542</v>
@@ -3165,13 +3222,13 @@
         <v>48</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C46" s="23" t="n">
         <v>20</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E46" s="39" t="n">
         <v>40956</v>
@@ -3188,13 +3245,13 @@
         <v>49</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C47" s="23" t="n">
         <v>20</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E47" s="39" t="n">
         <v>41523</v>
@@ -3211,13 +3268,13 @@
         <v>50</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C48" s="23" t="n">
         <v>20</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E48" s="39" t="n">
         <v>41785</v>
@@ -3234,13 +3291,13 @@
         <v>51</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C49" s="23" t="n">
         <v>20</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E49" s="39" t="n">
         <v>42173</v>
@@ -3257,13 +3314,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C50" s="23" t="n">
         <v>20</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E50" s="39" t="n">
         <v>42933</v>
@@ -3280,13 +3337,13 @@
         <v>53</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C51" s="23" t="n">
         <v>20</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E51" s="39" t="n">
         <v>43476</v>
@@ -3303,13 +3360,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C52" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E52" s="39" t="n">
         <v>40781</v>
@@ -3326,13 +3383,13 @@
         <v>55</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C53" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E53" s="39" t="n">
         <v>41542</v>
@@ -3349,13 +3406,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C54" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E54" s="39" t="n">
         <v>41838</v>
@@ -3372,13 +3429,13 @@
         <v>57</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C55" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E55" s="39" t="n">
         <v>42116</v>
@@ -3395,13 +3452,13 @@
         <v>58</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C56" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E56" s="39" t="n">
         <v>42913</v>
@@ -3418,13 +3475,13 @@
         <v>59</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C57" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E57" s="39" t="n">
         <v>43476</v>
@@ -3441,13 +3498,13 @@
         <v>60</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C58" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E58" s="39" t="n">
         <v>43516</v>
@@ -3464,13 +3521,13 @@
         <v>61</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C59" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E59" s="39" t="n">
         <v>40781</v>
@@ -3487,13 +3544,13 @@
         <v>62</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C60" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E60" s="39" t="n">
         <v>41542</v>
@@ -3510,13 +3567,13 @@
         <v>63</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C61" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E61" s="39" t="n">
         <v>41838</v>
@@ -3533,13 +3590,13 @@
         <v>64</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C62" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E62" s="39" t="n">
         <v>42116</v>
@@ -3556,13 +3613,13 @@
         <v>65</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C63" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E63" s="39" t="n">
         <v>42913</v>
@@ -3579,13 +3636,13 @@
         <v>66</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C64" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E64" s="39" t="n">
         <v>43476</v>
@@ -3602,13 +3659,13 @@
         <v>67</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C65" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E65" s="39" t="n">
         <v>43516</v>
@@ -3625,13 +3682,13 @@
         <v>68</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C66" s="23" t="n">
         <v>23</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E66" s="39" t="n">
         <v>42116</v>
@@ -3648,13 +3705,13 @@
         <v>69</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C67" s="23" t="n">
         <v>23</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E67" s="39" t="n">
         <v>42172</v>
@@ -3671,13 +3728,13 @@
         <v>71</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C68" s="23" t="n">
         <v>23</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E68" s="39" t="n">
         <v>42350</v>
@@ -3694,13 +3751,13 @@
         <v>72</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C69" s="23" t="n">
         <v>23</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E69" s="45" t="n">
         <v>42929</v>
@@ -3717,13 +3774,13 @@
         <v>73</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C70" s="23" t="n">
         <v>23</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E70" s="39" t="n">
         <v>43272</v>
@@ -3740,13 +3797,13 @@
         <v>74</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C71" s="23" t="n">
         <v>23</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E71" s="39" t="n">
         <v>43542</v>
@@ -3763,13 +3820,13 @@
         <v>75</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C72" s="23" t="n">
         <v>24</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E72" s="39" t="n">
         <v>40956</v>
@@ -3786,13 +3843,13 @@
         <v>76</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C73" s="23" t="n">
         <v>24</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E73" s="39" t="n">
         <v>41523</v>
@@ -3809,13 +3866,13 @@
         <v>77</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C74" s="23" t="n">
         <v>24</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E74" s="39" t="n">
         <v>41785</v>
@@ -3832,13 +3889,13 @@
         <v>78</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C75" s="23" t="n">
         <v>24</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E75" s="39" t="n">
         <v>42173</v>
@@ -3855,13 +3912,13 @@
         <v>79</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C76" s="23" t="n">
         <v>24</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E76" s="39" t="n">
         <v>42933</v>
@@ -3878,13 +3935,13 @@
         <v>80</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C77" s="23" t="n">
         <v>24</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E77" s="39" t="n">
         <v>43476</v>
@@ -3901,13 +3958,13 @@
         <v>81</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C78" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E78" s="39" t="n">
         <v>40781</v>
@@ -3924,13 +3981,13 @@
         <v>82</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C79" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E79" s="39" t="n">
         <v>41542</v>
@@ -3947,13 +4004,13 @@
         <v>83</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C80" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E80" s="39" t="n">
         <v>41838</v>
@@ -3970,13 +4027,13 @@
         <v>84</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C81" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E81" s="39" t="n">
         <v>42116</v>
@@ -3993,13 +4050,13 @@
         <v>85</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C82" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E82" s="39" t="n">
         <v>42913</v>
@@ -4016,13 +4073,13 @@
         <v>86</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C83" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E83" s="39" t="n">
         <v>43476</v>
@@ -4039,13 +4096,13 @@
         <v>87</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C84" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E84" s="39" t="n">
         <v>43516</v>
@@ -4062,13 +4119,13 @@
         <v>88</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C85" s="23" t="n">
         <v>26</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E85" s="39" t="n">
         <v>42116</v>
@@ -4085,13 +4142,13 @@
         <v>89</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C86" s="23" t="n">
         <v>26</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E86" s="39" t="n">
         <v>42172</v>
@@ -4108,13 +4165,13 @@
         <v>91</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C87" s="23" t="n">
         <v>26</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E87" s="39" t="n">
         <v>42350</v>
@@ -4131,13 +4188,13 @@
         <v>92</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C88" s="23" t="n">
         <v>26</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E88" s="45" t="n">
         <v>42929</v>
@@ -4154,13 +4211,13 @@
         <v>93</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C89" s="23" t="n">
         <v>26</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E89" s="39" t="n">
         <v>43272</v>
@@ -4177,13 +4234,13 @@
         <v>94</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C90" s="23" t="n">
         <v>26</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E90" s="39" t="n">
         <v>43542</v>
@@ -4200,13 +4257,13 @@
         <v>95</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C91" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E91" s="39" t="n">
         <v>40956</v>
@@ -4223,13 +4280,13 @@
         <v>96</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C92" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E92" s="39" t="n">
         <v>41523</v>
@@ -4246,13 +4303,13 @@
         <v>97</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C93" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E93" s="39" t="n">
         <v>41785</v>
@@ -4269,13 +4326,13 @@
         <v>98</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C94" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E94" s="39" t="n">
         <v>42173</v>
@@ -4292,13 +4349,13 @@
         <v>99</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C95" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E95" s="39" t="n">
         <v>42933</v>
@@ -4315,13 +4372,13 @@
         <v>100</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C96" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E96" s="39" t="n">
         <v>43476</v>
@@ -4338,13 +4395,13 @@
         <v>101</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C97" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E97" s="39" t="n">
         <v>40781</v>
@@ -4361,13 +4418,13 @@
         <v>102</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C98" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E98" s="39" t="n">
         <v>41542</v>
@@ -4384,13 +4441,13 @@
         <v>103</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C99" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E99" s="39" t="n">
         <v>41838</v>
@@ -4407,13 +4464,13 @@
         <v>104</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C100" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E100" s="39" t="n">
         <v>42116</v>
@@ -4430,13 +4487,13 @@
         <v>105</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C101" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E101" s="39" t="n">
         <v>42913</v>
@@ -4453,13 +4510,13 @@
         <v>106</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C102" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E102" s="39" t="n">
         <v>43476</v>
@@ -4476,13 +4533,13 @@
         <v>107</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C103" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E103" s="39" t="n">
         <v>43516</v>
@@ -4499,13 +4556,13 @@
         <v>108</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C104" s="23" t="n">
         <v>29</v>
       </c>
       <c r="D104" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E104" s="39" t="n">
         <v>40781</v>
@@ -4522,13 +4579,13 @@
         <v>109</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C105" s="23" t="n">
         <v>29</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E105" s="39" t="n">
         <v>41542</v>
@@ -4545,13 +4602,13 @@
         <v>110</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C106" s="23" t="n">
         <v>29</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E106" s="39" t="n">
         <v>41838</v>
@@ -4568,13 +4625,13 @@
         <v>111</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C107" s="23" t="n">
         <v>29</v>
       </c>
       <c r="D107" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E107" s="39" t="n">
         <v>42116</v>
@@ -4591,13 +4648,13 @@
         <v>112</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C108" s="23" t="n">
         <v>29</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E108" s="39" t="n">
         <v>42913</v>
@@ -4614,13 +4671,13 @@
         <v>113</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C109" s="23" t="n">
         <v>29</v>
       </c>
       <c r="D109" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E109" s="39" t="n">
         <v>43476</v>
@@ -4637,13 +4694,13 @@
         <v>114</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C110" s="23" t="n">
         <v>29</v>
       </c>
       <c r="D110" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E110" s="39" t="n">
         <v>43516</v>
@@ -4660,13 +4717,13 @@
         <v>115</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C111" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E111" s="39" t="n">
         <v>42116</v>
@@ -4683,13 +4740,13 @@
         <v>116</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C112" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D112" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E112" s="39" t="n">
         <v>42172</v>
@@ -4706,13 +4763,13 @@
         <v>117</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C113" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D113" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E113" s="39" t="n">
         <v>42350</v>
@@ -4729,13 +4786,13 @@
         <v>118</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C114" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E114" s="45" t="n">
         <v>42929</v>
@@ -4752,13 +4809,13 @@
         <v>119</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C115" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E115" s="39" t="n">
         <v>43272</v>
@@ -4775,13 +4832,13 @@
         <v>120</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C116" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D116" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E116" s="39" t="n">
         <v>43542</v>
@@ -4798,13 +4855,13 @@
         <v>121</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C117" s="22" t="n">
         <v>31</v>
       </c>
       <c r="D117" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E117" s="39" t="n">
         <v>40956</v>
@@ -4821,13 +4878,13 @@
         <v>122</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C118" s="22" t="n">
         <v>31</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E118" s="39" t="n">
         <v>41523</v>
@@ -4844,13 +4901,13 @@
         <v>123</v>
       </c>
       <c r="B119" s="21" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C119" s="22" t="n">
         <v>31</v>
       </c>
       <c r="D119" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E119" s="39" t="n">
         <v>41785</v>
@@ -4867,13 +4924,13 @@
         <v>124</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C120" s="22" t="n">
         <v>31</v>
       </c>
       <c r="D120" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E120" s="39" t="n">
         <v>42173</v>
@@ -4890,13 +4947,13 @@
         <v>125</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C121" s="22" t="n">
         <v>31</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E121" s="39" t="n">
         <v>42933</v>
@@ -4913,13 +4970,13 @@
         <v>126</v>
       </c>
       <c r="B122" s="21" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C122" s="22" t="n">
         <v>31</v>
       </c>
       <c r="D122" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E122" s="39" t="n">
         <v>43476</v>
@@ -10575,7 +10632,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.51"/>
@@ -10590,10 +10647,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="33" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C1" s="34" t="s">
         <v>6</v>
@@ -10602,28 +10659,28 @@
         <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10637,7 +10694,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E2" s="39" t="n">
         <v>42116</v>
@@ -10665,7 +10722,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E3" s="45" t="n">
         <v>42929</v>
@@ -10693,7 +10750,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E4" s="39" t="n">
         <v>43272</v>
@@ -10721,7 +10778,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E5" s="39" t="n">
         <v>43542</v>
@@ -10749,7 +10806,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E6" s="39" t="n">
         <v>40956</v>
@@ -10777,7 +10834,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E7" s="39" t="n">
         <v>41523</v>
@@ -10805,7 +10862,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E8" s="39" t="n">
         <v>41785</v>
@@ -10833,7 +10890,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E9" s="39" t="n">
         <v>42933</v>
@@ -10861,7 +10918,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E10" s="39" t="n">
         <v>43476</v>
@@ -10883,13 +10940,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E11" s="39" t="n">
         <v>40781</v>
@@ -10911,13 +10968,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E12" s="39" t="n">
         <v>41838</v>
@@ -10939,13 +10996,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E13" s="39" t="n">
         <v>42116</v>
@@ -10967,13 +11024,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E14" s="39" t="n">
         <v>42913</v>
@@ -10995,13 +11052,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E15" s="39" t="n">
         <v>43476</v>
@@ -11023,13 +11080,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E16" s="39" t="n">
         <v>43516</v>
@@ -11051,13 +11108,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" s="23" t="n">
         <v>16</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E17" s="39" t="n">
         <v>42116</v>
@@ -11079,13 +11136,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" s="23" t="n">
         <v>16</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E18" s="39" t="n">
         <v>42350</v>
@@ -11107,13 +11164,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C19" s="23" t="n">
         <v>16</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E19" s="39" t="n">
         <v>43272</v>
@@ -11135,13 +11192,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C20" s="23" t="n">
         <v>16</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E20" s="39" t="n">
         <v>43542</v>
@@ -11163,13 +11220,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C21" s="23" t="n">
         <v>17</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E21" s="39" t="n">
         <v>40956</v>
@@ -11191,13 +11248,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C22" s="23" t="n">
         <v>17</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E22" s="39" t="n">
         <v>41785</v>
@@ -11219,13 +11276,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C23" s="23" t="n">
         <v>17</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E23" s="39" t="n">
         <v>42173</v>
@@ -11247,13 +11304,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C24" s="23" t="n">
         <v>17</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E24" s="39" t="n">
         <v>43476</v>
@@ -11275,13 +11332,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C25" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E25" s="39" t="n">
         <v>40781</v>
@@ -11303,13 +11360,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C26" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E26" s="39" t="n">
         <v>41542</v>
@@ -11331,13 +11388,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C27" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E27" s="39" t="n">
         <v>41838</v>
@@ -11359,13 +11416,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C28" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E28" s="39" t="n">
         <v>42913</v>
@@ -11387,13 +11444,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C29" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E29" s="39" t="n">
         <v>43476</v>
@@ -11415,13 +11472,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C30" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E30" s="39" t="n">
         <v>43516</v>
@@ -11443,13 +11500,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C31" s="23" t="n">
         <v>19</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E31" s="39" t="n">
         <v>42172</v>
@@ -11471,13 +11528,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C32" s="23" t="n">
         <v>19</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E32" s="39" t="n">
         <v>42350</v>
@@ -11499,13 +11556,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C33" s="23" t="n">
         <v>19</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E33" s="45" t="n">
         <v>42929</v>
@@ -11527,13 +11584,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C34" s="23" t="n">
         <v>19</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E34" s="39" t="n">
         <v>43272</v>
@@ -11555,13 +11612,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C35" s="23" t="n">
         <v>19</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E35" s="39" t="n">
         <v>43542</v>
@@ -11583,13 +11640,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C36" s="23" t="n">
         <v>20</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E36" s="39" t="n">
         <v>41523</v>
@@ -11611,13 +11668,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C37" s="23" t="n">
         <v>20</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E37" s="39" t="n">
         <v>41785</v>
@@ -11639,13 +11696,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C38" s="23" t="n">
         <v>20</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E38" s="39" t="n">
         <v>42173</v>
@@ -11667,13 +11724,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C39" s="23" t="n">
         <v>20</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E39" s="39" t="n">
         <v>43476</v>
@@ -11695,13 +11752,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C40" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E40" s="39" t="n">
         <v>40781</v>
@@ -11723,13 +11780,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C41" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E41" s="39" t="n">
         <v>41542</v>
@@ -11751,13 +11808,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C42" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E42" s="39" t="n">
         <v>41838</v>
@@ -11779,13 +11836,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C43" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E43" s="39" t="n">
         <v>42913</v>
@@ -11807,13 +11864,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C44" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E44" s="39" t="n">
         <v>43476</v>
@@ -11835,13 +11892,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C45" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E45" s="39" t="n">
         <v>43516</v>
@@ -11863,13 +11920,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C46" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E46" s="39" t="n">
         <v>40781</v>
@@ -11891,13 +11948,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C47" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E47" s="39" t="n">
         <v>41838</v>
@@ -11919,13 +11976,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C48" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E48" s="39" t="n">
         <v>42116</v>
@@ -11947,13 +12004,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C49" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E49" s="39" t="n">
         <v>42913</v>
@@ -11975,13 +12032,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C50" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E50" s="39" t="n">
         <v>43516</v>
@@ -12003,13 +12060,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C51" s="23" t="n">
         <v>23</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E51" s="39" t="n">
         <v>42116</v>
@@ -12031,13 +12088,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C52" s="23" t="n">
         <v>23</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E52" s="39" t="n">
         <v>42350</v>
@@ -12059,13 +12116,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C53" s="23" t="n">
         <v>23</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E53" s="45" t="n">
         <v>42929</v>
@@ -12087,13 +12144,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C54" s="23" t="n">
         <v>23</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E54" s="39" t="n">
         <v>43542</v>
@@ -12115,13 +12172,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C55" s="23" t="n">
         <v>24</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E55" s="39" t="n">
         <v>40956</v>
@@ -12143,13 +12200,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C56" s="23" t="n">
         <v>24</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E56" s="39" t="n">
         <v>42173</v>
@@ -12171,13 +12228,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C57" s="23" t="n">
         <v>24</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E57" s="39" t="n">
         <v>42933</v>
@@ -12199,13 +12256,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C58" s="23" t="n">
         <v>24</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E58" s="39" t="n">
         <v>43476</v>
@@ -12227,13 +12284,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C59" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E59" s="39" t="n">
         <v>40781</v>
@@ -12255,13 +12312,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C60" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E60" s="39" t="n">
         <v>41838</v>
@@ -12283,13 +12340,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C61" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E61" s="39" t="n">
         <v>42913</v>
@@ -12311,13 +12368,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C62" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E62" s="39" t="n">
         <v>43476</v>
@@ -12339,13 +12396,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C63" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E63" s="39" t="n">
         <v>43516</v>
@@ -12367,13 +12424,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C64" s="23" t="n">
         <v>26</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E64" s="39" t="n">
         <v>42116</v>
@@ -12395,13 +12452,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C65" s="23" t="n">
         <v>26</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E65" s="39" t="n">
         <v>42172</v>
@@ -12423,13 +12480,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C66" s="23" t="n">
         <v>26</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E66" s="39" t="n">
         <v>42350</v>
@@ -12451,13 +12508,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C67" s="23" t="n">
         <v>26</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E67" s="39" t="n">
         <v>43272</v>
@@ -12479,13 +12536,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C68" s="23" t="n">
         <v>26</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E68" s="39" t="n">
         <v>43542</v>
@@ -12507,13 +12564,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C69" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E69" s="39" t="n">
         <v>40956</v>
@@ -12535,13 +12592,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C70" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E70" s="39" t="n">
         <v>41523</v>
@@ -12563,13 +12620,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C71" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E71" s="39" t="n">
         <v>41785</v>
@@ -12591,13 +12648,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C72" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E72" s="39" t="n">
         <v>42173</v>
@@ -12619,13 +12676,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C73" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E73" s="39" t="n">
         <v>42933</v>
@@ -12647,13 +12704,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C74" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E74" s="39" t="n">
         <v>43476</v>
@@ -12675,13 +12732,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C75" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E75" s="39" t="n">
         <v>40781</v>
@@ -12703,13 +12760,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C76" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E76" s="39" t="n">
         <v>41542</v>
@@ -12731,13 +12788,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C77" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E77" s="39" t="n">
         <v>41838</v>
@@ -12759,13 +12816,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C78" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E78" s="39" t="n">
         <v>42913</v>
@@ -12787,13 +12844,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C79" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E79" s="39" t="n">
         <v>43476</v>
@@ -12815,13 +12872,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C80" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E80" s="39" t="n">
         <v>43516</v>
@@ -12843,13 +12900,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C81" s="23" t="n">
         <v>29</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E81" s="39" t="n">
         <v>40781</v>
@@ -12871,13 +12928,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C82" s="23" t="n">
         <v>29</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E82" s="39" t="n">
         <v>41542</v>
@@ -12899,13 +12956,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C83" s="23" t="n">
         <v>29</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E83" s="39" t="n">
         <v>41838</v>
@@ -12927,13 +12984,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C84" s="23" t="n">
         <v>29</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E84" s="39" t="n">
         <v>42913</v>
@@ -12955,13 +13012,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C85" s="23" t="n">
         <v>29</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E85" s="39" t="n">
         <v>43476</v>
@@ -12983,13 +13040,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C86" s="23" t="n">
         <v>29</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E86" s="39" t="n">
         <v>43516</v>
@@ -13011,13 +13068,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C87" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E87" s="39" t="n">
         <v>42116</v>
@@ -13039,13 +13096,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C88" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E88" s="39" t="n">
         <v>42172</v>
@@ -13067,13 +13124,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C89" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E89" s="39" t="n">
         <v>42350</v>
@@ -13095,13 +13152,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C90" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E90" s="45" t="n">
         <v>42929</v>
@@ -13123,13 +13180,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C91" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E91" s="39" t="n">
         <v>43272</v>
@@ -13151,13 +13208,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C92" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E92" s="39" t="n">
         <v>43542</v>
@@ -13179,13 +13236,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C93" s="22" t="n">
         <v>31</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E93" s="39" t="n">
         <v>41523</v>
@@ -13207,13 +13264,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C94" s="22" t="n">
         <v>31</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E94" s="39" t="n">
         <v>41785</v>
@@ -13235,13 +13292,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C95" s="22" t="n">
         <v>31</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E95" s="39" t="n">
         <v>42173</v>
@@ -13263,13 +13320,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C96" s="22" t="n">
         <v>31</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E96" s="39" t="n">
         <v>42933</v>
@@ -13291,13 +13348,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C97" s="22" t="n">
         <v>31</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E97" s="39" t="n">
         <v>43476</v>
@@ -17346,10 +17403,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="33" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C1" s="34" t="s">
         <v>6</v>
@@ -17358,16 +17415,16 @@
         <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17381,7 +17438,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E2" s="39" t="n">
         <v>42116</v>
@@ -17407,7 +17464,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E3" s="45" t="n">
         <v>42929</v>
@@ -17433,7 +17490,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E4" s="39" t="n">
         <v>43542</v>
@@ -17459,7 +17516,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E5" s="39" t="n">
         <v>41523</v>
@@ -17485,7 +17542,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E6" s="39" t="n">
         <v>42933</v>
@@ -17511,7 +17568,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E7" s="39" t="n">
         <v>43476</v>
@@ -17531,13 +17588,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E8" s="39" t="n">
         <v>40781</v>
@@ -17557,13 +17614,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E9" s="39" t="n">
         <v>41838</v>
@@ -17583,13 +17640,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E10" s="39" t="n">
         <v>42913</v>
@@ -17609,13 +17666,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="23" t="n">
         <v>15</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E11" s="39" t="n">
         <v>43476</v>
@@ -17635,13 +17692,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="23" t="n">
         <v>16</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E12" s="39" t="n">
         <v>42116</v>
@@ -17661,13 +17718,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C13" s="23" t="n">
         <v>17</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E13" s="39" t="n">
         <v>40956</v>
@@ -17687,13 +17744,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C14" s="23" t="n">
         <v>17</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E14" s="39" t="n">
         <v>41785</v>
@@ -17713,13 +17770,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C15" s="23" t="n">
         <v>17</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E15" s="39" t="n">
         <v>43476</v>
@@ -17739,13 +17796,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C16" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E16" s="39" t="n">
         <v>40781</v>
@@ -17765,13 +17822,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C17" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E17" s="39" t="n">
         <v>41838</v>
@@ -17791,13 +17848,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C18" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E18" s="39" t="n">
         <v>43476</v>
@@ -17817,13 +17874,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C19" s="23" t="n">
         <v>18</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E19" s="39" t="n">
         <v>43516</v>
@@ -17843,13 +17900,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C20" s="23" t="n">
         <v>19</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E20" s="39" t="n">
         <v>42172</v>
@@ -17869,13 +17926,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C21" s="23" t="n">
         <v>19</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E21" s="39" t="n">
         <v>42350</v>
@@ -17895,13 +17952,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C22" s="23" t="n">
         <v>19</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E22" s="39" t="n">
         <v>43542</v>
@@ -17921,13 +17978,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C23" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E23" s="39" t="n">
         <v>40781</v>
@@ -17947,13 +18004,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C24" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E24" s="39" t="n">
         <v>41542</v>
@@ -17973,13 +18030,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C25" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E25" s="39" t="n">
         <v>43476</v>
@@ -17999,13 +18056,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C26" s="23" t="n">
         <v>21</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E26" s="39" t="n">
         <v>43516</v>
@@ -18025,13 +18082,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C27" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E27" s="39" t="n">
         <v>40781</v>
@@ -18051,13 +18108,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C28" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E28" s="39" t="n">
         <v>41838</v>
@@ -18077,13 +18134,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C29" s="23" t="n">
         <v>22</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E29" s="39" t="n">
         <v>43516</v>
@@ -18103,13 +18160,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C30" s="23" t="n">
         <v>23</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E30" s="39" t="n">
         <v>42116</v>
@@ -18129,13 +18186,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C31" s="23" t="n">
         <v>23</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E31" s="39" t="n">
         <v>42350</v>
@@ -18155,13 +18212,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C32" s="23" t="n">
         <v>23</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E32" s="45" t="n">
         <v>42929</v>
@@ -18181,13 +18238,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C33" s="23" t="n">
         <v>23</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E33" s="39" t="n">
         <v>43542</v>
@@ -18207,13 +18264,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C34" s="23" t="n">
         <v>24</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E34" s="39" t="n">
         <v>40956</v>
@@ -18233,13 +18290,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C35" s="23" t="n">
         <v>24</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E35" s="39" t="n">
         <v>42173</v>
@@ -18259,13 +18316,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C36" s="23" t="n">
         <v>24</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E36" s="39" t="n">
         <v>43476</v>
@@ -18285,13 +18342,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C37" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E37" s="39" t="n">
         <v>40781</v>
@@ -18311,13 +18368,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C38" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E38" s="39" t="n">
         <v>41838</v>
@@ -18337,13 +18394,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C39" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E39" s="39" t="n">
         <v>43476</v>
@@ -18363,13 +18420,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C40" s="23" t="n">
         <v>25</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E40" s="39" t="n">
         <v>43516</v>
@@ -18389,13 +18446,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C41" s="23" t="n">
         <v>26</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E41" s="39" t="n">
         <v>42116</v>
@@ -18415,13 +18472,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C42" s="23" t="n">
         <v>26</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E42" s="39" t="n">
         <v>42172</v>
@@ -18441,13 +18498,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C43" s="23" t="n">
         <v>26</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E43" s="39" t="n">
         <v>43272</v>
@@ -18467,13 +18524,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C44" s="23" t="n">
         <v>26</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E44" s="39" t="n">
         <v>43542</v>
@@ -18493,13 +18550,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C45" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E45" s="39" t="n">
         <v>40956</v>
@@ -18519,13 +18576,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C46" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E46" s="39" t="n">
         <v>42173</v>
@@ -18545,13 +18602,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C47" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E47" s="39" t="n">
         <v>42933</v>
@@ -18571,13 +18628,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C48" s="23" t="n">
         <v>27</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E48" s="39" t="n">
         <v>43476</v>
@@ -18597,13 +18654,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C49" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E49" s="39" t="n">
         <v>40781</v>
@@ -18623,13 +18680,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C50" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E50" s="39" t="n">
         <v>41542</v>
@@ -18649,13 +18706,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C51" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E51" s="39" t="n">
         <v>41838</v>
@@ -18675,13 +18732,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C52" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E52" s="39" t="n">
         <v>43476</v>
@@ -18701,13 +18758,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C53" s="23" t="n">
         <v>28</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E53" s="39" t="n">
         <v>43516</v>
@@ -18727,13 +18784,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C54" s="23" t="n">
         <v>29</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E54" s="39" t="n">
         <v>40781</v>
@@ -18753,13 +18810,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C55" s="23" t="n">
         <v>29</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E55" s="39" t="n">
         <v>43516</v>
@@ -18779,13 +18836,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C56" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E56" s="39" t="n">
         <v>42116</v>
@@ -18805,13 +18862,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C57" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E57" s="39" t="n">
         <v>42172</v>
@@ -18831,13 +18888,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C58" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E58" s="45" t="n">
         <v>42929</v>
@@ -18857,13 +18914,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C59" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E59" s="39" t="n">
         <v>43272</v>
@@ -18883,13 +18940,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C60" s="23" t="n">
         <v>30</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E60" s="39" t="n">
         <v>43542</v>
@@ -18909,13 +18966,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C61" s="22" t="n">
         <v>31</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E61" s="39" t="n">
         <v>41523</v>
@@ -18935,13 +18992,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C62" s="22" t="n">
         <v>31</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E62" s="39" t="n">
         <v>41785</v>
@@ -18961,13 +19018,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C63" s="22" t="n">
         <v>31</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E63" s="39" t="n">
         <v>42933</v>
@@ -18987,13 +19044,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C64" s="22" t="n">
         <v>31</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E64" s="39" t="n">
         <v>43476</v>
@@ -19034,17 +19091,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
